--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:25:04+00:00</t>
+    <t>2024-02-07T09:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:30:33+00:00</t>
+    <t>2024-02-21T11:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
